--- a/userCode/results.xlsx
+++ b/userCode/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11.77%</t>
+          <t>13.33%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,9 +561,21 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -573,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5.88%</t>
+          <t>6.66%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +593,26 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>35.30%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,8 +635,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>1</t>
@@ -626,11 +662,31 @@
           <t>0.00%</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -640,7 +696,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.94%</t>
+          <t>3.33%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -648,10 +704,26 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -664,11 +736,31 @@
           <t>0.00%</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -678,7 +770,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11.77%</t>
+          <t>13.33%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -686,9 +778,21 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>1</t>
@@ -706,11 +810,31 @@
           <t>0.00%</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -720,7 +844,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20.60%</t>
+          <t>23.34%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -733,8 +857,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>1</t>
@@ -744,69 +876,224 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>route_dev</t>
+          <t>score_composed</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.94%</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>7.887785</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.007599</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.154243</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Agent deviated from the route at (x=465.524, y=4485.719, z=370.326)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>23.067084</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vehicle_blocked</t>
+          <t>score_route</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5.88%</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+          <t>36.338</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Agent got blocked at (x=255.333, y=3808.387, z=363.823)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Agent got blocked at (x=3710.641, y=2383.847, z=359.966)</t>
+          <t>55.34</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>score_penalty</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.51887</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7.6e-05</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17745</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.416825</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>route_dev</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Agent deviated from the route at (x=</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>vehicle_blocked</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Agent got blocked at (x=255.333, y=3</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Agent got blocked at (x=3710.641, y=</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>route_timeout</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2.94%</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Route timeout.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
